--- a/data/trans_bre/P2C_R1-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Dificultad-trans_bre.xlsx
@@ -651,7 +651,7 @@
         <v>1.172879490537042</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4388749700722615</v>
+        <v>0.4388749700722616</v>
       </c>
     </row>
     <row r="5">
@@ -662,24 +662,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1409783125055193</v>
+        <v>-0.1215046193889707</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1178561411319507</v>
+        <v>0.1183531975237938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.310076445038855</v>
+        <v>-0.3381573080762264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.358235362516032</v>
+        <v>-1.895694059820642</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.839419316257903</v>
+        <v>-0.712364330869431</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1306636989711819</v>
+        <v>-0.1179879005665255</v>
       </c>
     </row>
     <row r="6">
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.724315541188812</v>
+        <v>1.875543121824049</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.025725302004196</v>
+        <v>1.030201008893982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.256653571927967</v>
+        <v>1.12076960299387</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.66528375931469</v>
+        <v>12.92709142510928</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.486186899239874</v>
+        <v>1.388827669954955</v>
       </c>
     </row>
     <row r="7">
@@ -729,7 +729,7 @@
         <v>-0.3581961541049699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.006679060044799</v>
+        <v>3.006679060044796</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.420198663232762</v>
@@ -741,7 +741,7 @@
         <v>-0.3288156067500228</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2716606323826307</v>
+        <v>0.2716606323826304</v>
       </c>
     </row>
     <row r="8">
@@ -752,26 +752,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.3148087704780043</v>
+        <v>-0.3143307741266785</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2129113282954338</v>
+        <v>-0.2899791738535538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.668458139255203</v>
+        <v>-1.64692553514756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.618220469616221</v>
+        <v>-2.300459791735158</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.4618942585500396</v>
+        <v>-0.598849846584471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.9186038726802651</v>
+        <v>-0.8778848523775235</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1841264268707453</v>
+        <v>-0.1661114967510548</v>
       </c>
     </row>
     <row r="9">
@@ -782,24 +782,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.071040835388575</v>
+        <v>1.00124696881745</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.864287420824909</v>
+        <v>1.774928084084883</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7227916105924255</v>
+        <v>0.802322615173527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.337962657940815</v>
+        <v>7.400170010787124</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>1.857777103363857</v>
+        <v>2.704310501245031</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.871687468596456</v>
+        <v>0.8747530765142562</v>
       </c>
     </row>
     <row r="10">
@@ -846,28 +846,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.017857630299736</v>
+        <v>-2.02310669920073</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.419586822204983</v>
+        <v>-1.341557230413045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.606292441015293</v>
+        <v>-1.576693888971357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.010581159470444</v>
+        <v>-8.409778261861883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8099868353422446</v>
+        <v>-0.7773193743562903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6618223571596535</v>
+        <v>-0.6628422835678965</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.385844050079411</v>
+        <v>-0.403185563803297</v>
       </c>
     </row>
     <row r="12">
@@ -878,28 +878,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2269829277023938</v>
+        <v>0.2127465481310688</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9701397309531747</v>
+        <v>1.151525248650954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.633122937883127</v>
+        <v>1.761398996277129</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.76742043255734</v>
+        <v>7.632881057840985</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.978176524101266</v>
+        <v>0.8768763000927176</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.10446128121789</v>
+        <v>2.602544415235353</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.139422275586193</v>
+        <v>2.329122841152241</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8219007937068625</v>
+        <v>0.7628474033514449</v>
       </c>
     </row>
     <row r="13">
@@ -923,7 +923,7 @@
         <v>0.2103978030690413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.274766792765417</v>
+        <v>-2.274766792765415</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.556739794938899</v>
@@ -935,7 +935,7 @@
         <v>0.2511405253613136</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1107410559273152</v>
+        <v>-0.110741055927315</v>
       </c>
     </row>
     <row r="14">
@@ -946,26 +946,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1036092096385944</v>
+        <v>-0.1310932657241933</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.499237852485738</v>
+        <v>-1.622299319356896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.425578835647087</v>
+        <v>-1.699058431579611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-12.60128743805557</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>-0.9029766949717597</v>
-      </c>
+        <v>-11.75462408947826</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7143815949934609</v>
+        <v>-0.6133282021922459</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.4646892944998979</v>
+        <v>-0.4484672439411939</v>
       </c>
     </row>
     <row r="15">
@@ -976,24 +974,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.156946831115995</v>
+        <v>4.949166529888545</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.874405757302497</v>
+        <v>4.626328927314765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.689864190215799</v>
+        <v>1.733773395629967</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.997783597967854</v>
+        <v>8.384580773727221</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4.593293425669688</v>
+        <v>5.474820945813541</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>0.5670398488779422</v>
+        <v>0.6042431416336136</v>
       </c>
     </row>
     <row r="16">
@@ -1040,28 +1038,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3407737778657489</v>
+        <v>-0.3379026031668007</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1495232191195953</v>
+        <v>-0.1494591488716159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5466060523900147</v>
+        <v>-0.6085325257699297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.348417223462586</v>
+        <v>-1.330963166516593</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4627913602240389</v>
+        <v>-0.4401014196397886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1980026059066899</v>
+        <v>-0.1820052551515254</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4406959414513429</v>
+        <v>-0.4785137751151921</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.08023767487222228</v>
+        <v>-0.08499716077522321</v>
       </c>
     </row>
     <row r="18">
@@ -1072,28 +1070,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7506697693074554</v>
+        <v>0.7063732286362238</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.040188238118584</v>
+        <v>1.040979086694492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6403807620745076</v>
+        <v>0.6309748975907111</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.608621415289111</v>
+        <v>5.778903530663078</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.22297074064543</v>
+        <v>2.195249667095476</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.37012451494989</v>
+        <v>2.267299102879905</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.027514236027957</v>
+        <v>0.943621659830132</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4638776591898628</v>
+        <v>0.4859411290789091</v>
       </c>
     </row>
     <row r="19">
